--- a/config_debug/game_gift_style_config.xlsx
+++ b/config_debug/game_gift_style_config.xlsx
@@ -586,24 +586,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>60万金币,"10万金币","5万小游戏币","480万金币","20万金币","10万小游戏币","980万金币","30万金币","20万小游戏币",</t>
-  </si>
-  <si>
-    <t>10万金币,"10万金币","锁定*1","30万金币","20万金币","锁定*2","60万金币","30万金币","锁定*3",</t>
-  </si>
-  <si>
-    <t>60万金币,"20万金币","锁定*3","100万金币","20万金币","10万小游戏币","180万金币","20万金币","20万小游戏币",</t>
-  </si>
-  <si>
-    <t>180万金币,"10万金币","10万小游戏币","480万金币","20万金币","10万小游戏币","980万金币","30万金币","20万小游戏币",</t>
-  </si>
-  <si>
-    <t>480万金币,"20万金币","10万小游戏币","980万金币","30万金币","20万小游戏币","1980万金币","80万金币","30万小游戏币",</t>
-  </si>
-  <si>
-    <t>980万金币,"30万金币","20万小游戏币","1980万金币","80万金币","30万小游戏币","4980万金币","150万金币","50万小游戏币",</t>
-  </si>
-  <si>
     <t>"pay_icon_gold5","pay_icon_gold3","ty_icon_yxb_2","pay_icon_gold8","pay_icon_gold11","ty_icon_yxb_2","pay_icon_gold10","pay_icon_gold4","ty_icon_yxb_2",</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -630,6 +612,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -651,6 +634,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -682,6 +666,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -703,6 +688,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -724,6 +710,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -751,6 +738,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -772,6 +760,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -793,11 +782,36 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>",</t>
     </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"60万金币","10万金币","5万小游戏币","480万金币","20万金币","10万小游戏币","980万金币","30万金币","20万小游戏币",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"10万金币","10万金币","锁定*1","30万金币","20万金币","锁定*2","60万金币","30万金币","锁定*3",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"60万金币","20万金币","锁定*3","100万金币","20万金币","10万小游戏币","180万金币","20万金币","20万小游戏币",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"180万金币","10万金币","10万小游戏币","480万金币","20万金币","10万小游戏币","980万金币","30万金币","20万小游戏币",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"480万金币","20万金币","10万小游戏币","980万金币","30万金币","20万小游戏币","1980万金币","80万金币","30万小游戏币",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"980万金币","30万金币","20万小游戏币","1980万金币","80万金币","30万小游戏币","4980万金币","150万金币","50万小游戏币",</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1274,10 +1288,10 @@
   <dimension ref="A1:T29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="N2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H14" sqref="H14"/>
+      <selection pane="bottomRight" activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1487,10 +1501,10 @@
         <v>53</v>
       </c>
       <c r="O4" s="30" t="s">
+        <v>161</v>
+      </c>
+      <c r="P4" s="32" t="s">
         <v>155</v>
-      </c>
-      <c r="P4" s="32" t="s">
-        <v>161</v>
       </c>
       <c r="Q4" s="30"/>
       <c r="R4" s="30"/>
@@ -1543,10 +1557,10 @@
         <v>53</v>
       </c>
       <c r="O5" s="30" t="s">
+        <v>162</v>
+      </c>
+      <c r="P5" s="32" t="s">
         <v>156</v>
-      </c>
-      <c r="P5" s="32" t="s">
-        <v>162</v>
       </c>
       <c r="Q5" s="30"/>
       <c r="R5" s="30"/>
@@ -1599,10 +1613,10 @@
         <v>53</v>
       </c>
       <c r="O6" s="30" t="s">
+        <v>163</v>
+      </c>
+      <c r="P6" s="32" t="s">
         <v>157</v>
-      </c>
-      <c r="P6" s="32" t="s">
-        <v>163</v>
       </c>
       <c r="Q6" s="30"/>
       <c r="R6" s="30"/>
@@ -1655,10 +1669,10 @@
         <v>53</v>
       </c>
       <c r="O7" s="30" t="s">
+        <v>164</v>
+      </c>
+      <c r="P7" s="32" t="s">
         <v>158</v>
-      </c>
-      <c r="P7" s="32" t="s">
-        <v>164</v>
       </c>
       <c r="Q7" s="30"/>
       <c r="R7" s="30"/>
@@ -1711,10 +1725,10 @@
         <v>53</v>
       </c>
       <c r="O8" s="30" t="s">
+        <v>165</v>
+      </c>
+      <c r="P8" s="32" t="s">
         <v>159</v>
-      </c>
-      <c r="P8" s="32" t="s">
-        <v>165</v>
       </c>
       <c r="Q8" s="30"/>
       <c r="R8" s="30"/>
@@ -1767,10 +1781,10 @@
         <v>53</v>
       </c>
       <c r="O9" s="30" t="s">
+        <v>166</v>
+      </c>
+      <c r="P9" s="32" t="s">
         <v>160</v>
-      </c>
-      <c r="P9" s="32" t="s">
-        <v>166</v>
       </c>
       <c r="Q9" s="30"/>
       <c r="R9" s="30"/>

--- a/config_debug/game_gift_style_config.xlsx
+++ b/config_debug/game_gift_style_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TTHLBY\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="168">
   <si>
     <t>line|行号</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -812,6 +812,10 @@
   </si>
   <si>
     <t>"980万金币","30万金币","20万小游戏币","1980万金币","80万金币","30万小游戏币","4980万金币","150万金币","50万小游戏币",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>FFEABFFF</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1288,10 +1292,10 @@
   <dimension ref="A1:T29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="N2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="Q2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="O8" sqref="O8"/>
+      <selection pane="bottomRight" activeCell="S10" sqref="S10:S29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1498,7 +1502,7 @@
         <v>52</v>
       </c>
       <c r="N4" s="29" t="s">
-        <v>53</v>
+        <v>167</v>
       </c>
       <c r="O4" s="30" t="s">
         <v>161</v>
@@ -1554,7 +1558,7 @@
         <v>52</v>
       </c>
       <c r="N5" s="29" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="O5" s="30" t="s">
         <v>162</v>
@@ -1610,7 +1614,7 @@
         <v>140</v>
       </c>
       <c r="N6" s="29" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="O6" s="30" t="s">
         <v>163</v>
@@ -1666,7 +1670,7 @@
         <v>52</v>
       </c>
       <c r="N7" s="29" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="O7" s="30" t="s">
         <v>164</v>
@@ -1722,7 +1726,7 @@
         <v>52</v>
       </c>
       <c r="N8" s="29" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="O8" s="30" t="s">
         <v>165</v>
@@ -1778,7 +1782,7 @@
         <v>52</v>
       </c>
       <c r="N9" s="29" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="O9" s="30" t="s">
         <v>166</v>
@@ -1845,7 +1849,7 @@
       <c r="Q10" s="22"/>
       <c r="R10" s="22"/>
       <c r="S10" s="24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T10" s="24" t="s">
         <v>16</v>
@@ -1901,7 +1905,7 @@
       <c r="Q11" s="22"/>
       <c r="R11" s="22"/>
       <c r="S11" s="24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T11" s="24" t="s">
         <v>16</v>
@@ -1957,7 +1961,7 @@
       <c r="Q12" s="22"/>
       <c r="R12" s="22"/>
       <c r="S12" s="24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T12" s="24" t="s">
         <v>16</v>
@@ -2013,7 +2017,7 @@
       <c r="Q13" s="22"/>
       <c r="R13" s="22"/>
       <c r="S13" s="24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T13" s="24" t="s">
         <v>16</v>
@@ -2069,7 +2073,7 @@
       <c r="Q14" s="22"/>
       <c r="R14" s="22"/>
       <c r="S14" s="24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T14" s="24" t="s">
         <v>16</v>
@@ -2110,7 +2114,7 @@
         <v>63</v>
       </c>
       <c r="N15" s="8" t="s">
-        <v>68</v>
+        <v>167</v>
       </c>
       <c r="O15" s="10" t="s">
         <v>29</v>
@@ -2119,7 +2123,7 @@
         <v>32</v>
       </c>
       <c r="S15" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T15" s="10" t="s">
         <v>16</v>
@@ -2169,7 +2173,7 @@
         <v>33</v>
       </c>
       <c r="S16" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T16" s="10" t="s">
         <v>16</v>
@@ -2219,7 +2223,7 @@
         <v>34</v>
       </c>
       <c r="S17" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T17" s="10" t="s">
         <v>16</v>
@@ -2269,7 +2273,7 @@
         <v>34</v>
       </c>
       <c r="S18" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T18" s="10" t="s">
         <v>16</v>
@@ -2319,7 +2323,7 @@
         <v>143</v>
       </c>
       <c r="S19" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T19" s="10" t="s">
         <v>16</v>
@@ -2371,7 +2375,7 @@
       <c r="Q20" s="17"/>
       <c r="R20" s="17"/>
       <c r="S20" s="19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T20" s="19" t="s">
         <v>16</v>
@@ -2423,7 +2427,7 @@
       <c r="Q21" s="17"/>
       <c r="R21" s="17"/>
       <c r="S21" s="19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T21" s="19" t="s">
         <v>16</v>
@@ -2475,7 +2479,7 @@
       <c r="Q22" s="17"/>
       <c r="R22" s="17"/>
       <c r="S22" s="19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T22" s="19" t="s">
         <v>16</v>
@@ -2527,7 +2531,7 @@
       <c r="Q23" s="17"/>
       <c r="R23" s="17"/>
       <c r="S23" s="19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T23" s="19" t="s">
         <v>16</v>
@@ -2579,7 +2583,7 @@
       <c r="Q24" s="17"/>
       <c r="R24" s="17"/>
       <c r="S24" s="19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T24" s="19" t="s">
         <v>16</v>
@@ -2633,7 +2637,7 @@
         <v>32</v>
       </c>
       <c r="S25" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T25" s="10" t="s">
         <v>16</v>
@@ -2687,7 +2691,7 @@
         <v>33</v>
       </c>
       <c r="S26" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T26" s="10" t="s">
         <v>16</v>
@@ -2741,7 +2745,7 @@
         <v>34</v>
       </c>
       <c r="S27" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T27" s="10" t="s">
         <v>16</v>
@@ -2795,7 +2799,7 @@
         <v>34</v>
       </c>
       <c r="S28" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T28" s="10" t="s">
         <v>16</v>
@@ -2849,7 +2853,7 @@
         <v>34</v>
       </c>
       <c r="S29" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T29" s="10" t="s">
         <v>16</v>

--- a/config_debug/game_gift_style_config.xlsx
+++ b/config_debug/game_gift_style_config.xlsx
@@ -16,12 +16,12 @@
     <sheet name="Sheet1" sheetId="6" r:id="rId2"/>
     <sheet name="Sheet2" sheetId="7" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="165">
   <si>
     <t>line|行号</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -148,15 +148,6 @@
     <t>"98万鲸币","3万鲸币","2万鱼币","198万鲸币","8万鲸币","3万鱼币","498万鲸币","15万鲸币","5万鱼币",</t>
   </si>
   <si>
-    <t>"pay_icon_gold5","pay_icon_gold3","bag_icon_jipaiqi","pay_icon_gold8","pay_icon_gold11","bag_icon_jipaiqi","pay_icon_gold10","pay_icon_gold4","bag_icon_jipaiqi",</t>
-  </si>
-  <si>
-    <t>"pay_icon_gold5","pay_icon_gold3","bag_icon_jipaiqi","pay_icon_gold8","pay_icon_gold11","com_award_icon_yb1","pay_icon_gold10","pay_icon_gold4","com_award_icon_yb2",</t>
-  </si>
-  <si>
-    <t>"pay_icon_gold5","pay_icon_gold3","com_icon_yb","pay_icon_gold8","pay_icon_gold11","com_award_icon_yb1","pay_icon_gold10","pay_icon_gold4","com_award_icon_yb2",</t>
-  </si>
-  <si>
     <t>|备注</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -502,23 +493,14 @@
   </si>
   <si>
     <t>"pay_icon_gold5","bag_icon_jipaiqi","com_award_icon_chanz1","pay_icon_gold8","bag_icon_jipaiqi","com_award_icon_chanz2","pay_icon_gold10","bag_icon_jipaiqi","com_award_icon_chanz3",</t>
-  </si>
-  <si>
-    <t>"pay_icon_gold5","bag_icon_jipaiqi","com_award_icon_chanz1","pay_icon_gold8","bag_icon_jipaiqi","com_award_icon_chanz2","pay_icon_gold10","bag_icon_jipaiqi","com_award_icon_chanz3",</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>"pay_icon_gold5","bag_icon_jipaiqi","com_award_icon_chanz1","pay_icon_gold8","com_award_icon_yb1","com_award_icon_chanz2","pay_icon_gold10","com_award_icon_yb2","com_award_icon_chanz3",</t>
-  </si>
-  <si>
-    <t>"pay_icon_gold5","bag_icon_jipaiqi","com_award_icon_chanz1","pay_icon_gold8","com_award_icon_yb1","com_award_icon_chanz2","pay_icon_gold10","com_award_icon_yb2","com_award_icon_chanz3",</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>"pay_icon_gold5","com_icon_yb","com_award_icon_chanz1","pay_icon_gold8","com_award_icon_yb1","com_award_icon_chanz2","pay_icon_gold10","com_award_icon_yb2","com_award_icon_chanz3",</t>
-  </si>
-  <si>
-    <t>"pay_icon_gold5","com_icon_yb","com_award_icon_chanz1","pay_icon_gold8","com_award_icon_yb1","com_award_icon_chanz2","pay_icon_gold10","com_award_icon_yb2","com_award_icon_chanz3",</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -538,10 +520,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>"pay_icon_gold5","pay_icon_gold3","com_icon_yb","pay_icon_gold8","pay_icon_gold11","com_award_icon_yb1","pay_icon_gold10","pay_icon_gold4","com_award_icon_yb2",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>cjslb_bg_1</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -586,211 +564,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>"pay_icon_gold5","pay_icon_gold3","ty_icon_yxb_2","pay_icon_gold8","pay_icon_gold11","ty_icon_yxb_2","pay_icon_gold10","pay_icon_gold4","ty_icon_yxb_2",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"pay_icon_gold5","pay_icon_gold3","3dby_btn_sd","pay_icon_gold8","pay_icon_gold11","3dby_btn_sd","pay_icon_gold10","pay_icon_gold4","3dby_btn_sd",</t>
-  </si>
-  <si>
-    <r>
-      <t>"pay_icon_gold5","pay_icon_gold3","3dby_btn_sd","pay_icon_gold8","pay_icon_gold11","</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ty_icon_yxb_2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>","pay_icon_gold10","pay_icon_gold4","</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ty_icon_yxb_4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>",</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"pay_icon_gold5","pay_icon_gold3","ty_icon_yxb_2","pay_icon_gold8","pay_icon_gold11","ty_icon_yxb_4","pay_icon_gold10","pay_icon_gold4","ty_icon_yxb_5",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>"pay_icon_gold5","pay_icon_gold3","</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ty_icon_yxb_2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>","pay_icon_gold8","pay_icon_gold11","</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ty_icon_yxb_4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>","pay_icon_gold10","pay_icon_gold4","</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ty_icon_yxb_5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>",</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>"pay_icon_gold5","pay_icon_gold3","</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ty_icon_yxb_2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>","pay_icon_gold8","pay_icon_gold11","</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ty_icon_yxb_4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>","pay_icon_gold10","pay_icon_gold4","</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ty_icon_yxb_5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>",</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>"60万金币","10万金币","5万小游戏币","480万金币","20万金币","10万小游戏币","980万金币","30万金币","20万小游戏币",</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -817,6 +590,36 @@
   <si>
     <t>FFEABFFF</t>
     <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"pay_icon_gold7","pay_icon_gold3","ty_icon_yxb_2","pay_icon_gold8","pay_icon_gold11","ty_icon_yxb_2","pay_icon_gold10","pay_icon_gold4","ty_icon_yxb_2",</t>
+  </si>
+  <si>
+    <t>"pay_icon_gold7","pay_icon_gold3","3dby_btn_sd","pay_icon_gold8","pay_icon_gold11","3dby_btn_sd","pay_icon_gold10","pay_icon_gold4","3dby_btn_sd",</t>
+  </si>
+  <si>
+    <t>"pay_icon_gold7","pay_icon_gold3","3dby_btn_sd","pay_icon_gold8","pay_icon_gold11","ty_icon_yxb_2","pay_icon_gold10","pay_icon_gold4","ty_icon_yxb_4",</t>
+  </si>
+  <si>
+    <t>"pay_icon_gold7","pay_icon_gold3","ty_icon_yxb_2","pay_icon_gold8","pay_icon_gold11","ty_icon_yxb_4","pay_icon_gold10","pay_icon_gold4","ty_icon_yxb_5",</t>
+  </si>
+  <si>
+    <t>"pay_icon_gold7","pay_icon_gold3","bag_icon_jipaiqi","pay_icon_gold8","pay_icon_gold11","bag_icon_jipaiqi","pay_icon_gold10","pay_icon_gold4","bag_icon_jipaiqi",</t>
+  </si>
+  <si>
+    <t>"pay_icon_gold7","pay_icon_gold3","bag_icon_jipaiqi","pay_icon_gold8","pay_icon_gold11","com_award_icon_yb1","pay_icon_gold10","pay_icon_gold4","com_award_icon_yb2",</t>
+  </si>
+  <si>
+    <t>"pay_icon_gold7","pay_icon_gold3","com_icon_yb","pay_icon_gold8","pay_icon_gold11","com_award_icon_yb1","pay_icon_gold10","pay_icon_gold4","com_award_icon_yb2",</t>
+  </si>
+  <si>
+    <t>"pay_icon_gold7","bag_icon_jipaiqi","com_award_icon_chanz1","pay_icon_gold8","bag_icon_jipaiqi","com_award_icon_chanz2","pay_icon_gold10","bag_icon_jipaiqi","com_award_icon_chanz3",</t>
+  </si>
+  <si>
+    <t>"pay_icon_gold7","bag_icon_jipaiqi","com_award_icon_chanz1","pay_icon_gold8","com_award_icon_yb1","com_award_icon_chanz2","pay_icon_gold10","com_award_icon_yb2","com_award_icon_chanz3",</t>
+  </si>
+  <si>
+    <t>"pay_icon_gold7","com_icon_yb","com_award_icon_chanz1","pay_icon_gold8","com_award_icon_yb1","com_award_icon_chanz2","pay_icon_gold10","com_award_icon_yb2","com_award_icon_chanz3",</t>
   </si>
 </sst>
 </file>
@@ -1292,10 +1095,10 @@
   <dimension ref="A1:T29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="Q2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="O2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="S10" sqref="S10:S29"/>
+      <selection pane="bottomRight" activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1342,25 +1145,25 @@
         <v>8</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="J1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>47</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>19</v>
@@ -1378,7 +1181,7 @@
         <v>5</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:20" ht="18.75" customHeight="1">
@@ -1392,14 +1195,14 @@
         <v>21</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F2" s="4"/>
       <c r="G2" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
@@ -1410,13 +1213,13 @@
       <c r="N2" s="4"/>
       <c r="O2" s="5"/>
       <c r="P2" s="5" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="Q2" s="5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="R2" s="5" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="S2" s="2">
         <v>1</v>
@@ -1474,38 +1277,38 @@
         <v>23</v>
       </c>
       <c r="D4" s="28" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="E4" s="27" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F4" s="27" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="G4" s="27" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="H4" s="29"/>
       <c r="I4" s="27">
         <v>1</v>
       </c>
       <c r="J4" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="K4" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="L4" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="M4" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="K4" s="27" t="s">
-        <v>50</v>
-      </c>
-      <c r="L4" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="M4" s="27" t="s">
-        <v>52</v>
-      </c>
       <c r="N4" s="29" t="s">
-        <v>167</v>
+        <v>154</v>
       </c>
       <c r="O4" s="30" t="s">
-        <v>161</v>
+        <v>148</v>
       </c>
       <c r="P4" s="32" t="s">
         <v>155</v>
@@ -1516,7 +1319,7 @@
         <v>1</v>
       </c>
       <c r="T4" s="30" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="5" spans="1:20" s="7" customFormat="1">
@@ -1533,35 +1336,35 @@
         <v>24</v>
       </c>
       <c r="E5" s="27" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F5" s="27" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="G5" s="27" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="H5" s="29"/>
       <c r="I5" s="27">
         <v>1</v>
       </c>
       <c r="J5" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="K5" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="L5" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="M5" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="K5" s="27" t="s">
-        <v>50</v>
-      </c>
-      <c r="L5" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="M5" s="27" t="s">
-        <v>52</v>
-      </c>
       <c r="N5" s="29" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="O5" s="30" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
       <c r="P5" s="32" t="s">
         <v>156</v>
@@ -1572,7 +1375,7 @@
         <v>1</v>
       </c>
       <c r="T5" s="30" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="6" spans="1:20" s="31" customFormat="1">
@@ -1589,35 +1392,35 @@
         <v>28</v>
       </c>
       <c r="E6" s="27" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F6" s="27" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="G6" s="27" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="H6" s="29"/>
       <c r="I6" s="27">
         <v>1</v>
       </c>
       <c r="J6" s="27" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="K6" s="27" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="L6" s="27" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="M6" s="27" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="N6" s="29" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="O6" s="30" t="s">
-        <v>163</v>
+        <v>150</v>
       </c>
       <c r="P6" s="32" t="s">
         <v>157</v>
@@ -1628,7 +1431,7 @@
         <v>1</v>
       </c>
       <c r="T6" s="30" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="7" spans="1:20" s="7" customFormat="1">
@@ -1645,35 +1448,35 @@
         <v>27</v>
       </c>
       <c r="E7" s="27" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F7" s="27" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="G7" s="27" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="H7" s="29"/>
       <c r="I7" s="27">
         <v>1</v>
       </c>
       <c r="J7" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="K7" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="L7" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="M7" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="K7" s="27" t="s">
-        <v>50</v>
-      </c>
-      <c r="L7" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="M7" s="27" t="s">
-        <v>52</v>
-      </c>
       <c r="N7" s="29" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="O7" s="30" t="s">
-        <v>164</v>
+        <v>151</v>
       </c>
       <c r="P7" s="32" t="s">
         <v>158</v>
@@ -1684,7 +1487,7 @@
         <v>1</v>
       </c>
       <c r="T7" s="30" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="8" spans="1:20" s="7" customFormat="1">
@@ -1701,38 +1504,38 @@
         <v>25</v>
       </c>
       <c r="E8" s="27" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F8" s="27" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="G8" s="27" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="H8" s="29"/>
       <c r="I8" s="27">
         <v>1</v>
       </c>
       <c r="J8" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="K8" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="L8" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="M8" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="K8" s="27" t="s">
-        <v>50</v>
-      </c>
-      <c r="L8" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="M8" s="27" t="s">
-        <v>52</v>
-      </c>
       <c r="N8" s="29" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="O8" s="30" t="s">
-        <v>165</v>
+        <v>152</v>
       </c>
       <c r="P8" s="32" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="Q8" s="30"/>
       <c r="R8" s="30"/>
@@ -1740,7 +1543,7 @@
         <v>1</v>
       </c>
       <c r="T8" s="30" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="9" spans="1:20" s="7" customFormat="1">
@@ -1757,38 +1560,38 @@
         <v>26</v>
       </c>
       <c r="E9" s="27" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F9" s="27" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="G9" s="27" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="H9" s="29"/>
       <c r="I9" s="27">
         <v>1</v>
       </c>
       <c r="J9" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="K9" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="L9" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="M9" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="K9" s="27" t="s">
-        <v>50</v>
-      </c>
-      <c r="L9" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="M9" s="27" t="s">
-        <v>52</v>
-      </c>
       <c r="N9" s="29" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="O9" s="30" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
       <c r="P9" s="32" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="Q9" s="30"/>
       <c r="R9" s="30"/>
@@ -1796,7 +1599,7 @@
         <v>1</v>
       </c>
       <c r="T9" s="30" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="10" spans="1:20" s="24" customFormat="1">
@@ -1810,41 +1613,41 @@
         <v>23</v>
       </c>
       <c r="D10" s="21" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E10" s="20" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="F10" s="20" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="G10" s="20" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="H10" s="20"/>
       <c r="I10" s="20">
         <v>1</v>
       </c>
       <c r="J10" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="K10" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="L10" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="M10" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="K10" s="20" t="s">
+      <c r="N10" s="20" t="s">
         <v>50</v>
-      </c>
-      <c r="L10" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="M10" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="N10" s="20" t="s">
-        <v>53</v>
       </c>
       <c r="O10" s="22" t="s">
         <v>29</v>
       </c>
       <c r="P10" s="23" t="s">
-        <v>32</v>
+        <v>159</v>
       </c>
       <c r="Q10" s="22"/>
       <c r="R10" s="22"/>
@@ -1866,41 +1669,41 @@
         <v>23</v>
       </c>
       <c r="D11" s="21" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E11" s="20" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F11" s="20" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="G11" s="20" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="H11" s="20"/>
       <c r="I11" s="20">
         <v>1</v>
       </c>
       <c r="J11" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="K11" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="L11" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="M11" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="K11" s="20" t="s">
+      <c r="N11" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="L11" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="M11" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="N11" s="20" t="s">
-        <v>53</v>
-      </c>
       <c r="O11" s="22" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="P11" s="23" t="s">
-        <v>33</v>
+        <v>160</v>
       </c>
       <c r="Q11" s="22"/>
       <c r="R11" s="22"/>
@@ -1916,47 +1719,47 @@
         <v>11</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="C12" s="20" t="s">
         <v>23</v>
       </c>
       <c r="D12" s="21" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E12" s="20" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F12" s="20" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="G12" s="20" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="H12" s="20"/>
       <c r="I12" s="20">
         <v>1</v>
       </c>
       <c r="J12" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="K12" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="L12" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="M12" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="K12" s="20" t="s">
+      <c r="N12" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="L12" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="M12" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="N12" s="20" t="s">
-        <v>53</v>
-      </c>
       <c r="O12" s="22" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="P12" s="23" t="s">
-        <v>34</v>
+        <v>161</v>
       </c>
       <c r="Q12" s="22"/>
       <c r="R12" s="22"/>
@@ -1978,41 +1781,41 @@
         <v>23</v>
       </c>
       <c r="D13" s="21" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E13" s="20" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F13" s="20" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="G13" s="20" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="H13" s="20"/>
       <c r="I13" s="20">
         <v>1</v>
       </c>
       <c r="J13" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="K13" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="L13" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="M13" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="K13" s="20" t="s">
+      <c r="N13" s="20" t="s">
         <v>50</v>
-      </c>
-      <c r="L13" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="M13" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="N13" s="20" t="s">
-        <v>53</v>
       </c>
       <c r="O13" s="22" t="s">
         <v>30</v>
       </c>
       <c r="P13" s="23" t="s">
-        <v>34</v>
+        <v>161</v>
       </c>
       <c r="Q13" s="22"/>
       <c r="R13" s="22"/>
@@ -2034,41 +1837,41 @@
         <v>23</v>
       </c>
       <c r="D14" s="21" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E14" s="20" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F14" s="20" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="G14" s="20" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="H14" s="20"/>
       <c r="I14" s="20">
         <v>1</v>
       </c>
       <c r="J14" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="K14" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="L14" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="M14" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="K14" s="20" t="s">
+      <c r="N14" s="20" t="s">
         <v>50</v>
-      </c>
-      <c r="L14" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="M14" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="N14" s="20" t="s">
-        <v>53</v>
       </c>
       <c r="O14" s="22" t="s">
         <v>31</v>
       </c>
       <c r="P14" s="23" t="s">
-        <v>34</v>
+        <v>161</v>
       </c>
       <c r="Q14" s="22"/>
       <c r="R14" s="22"/>
@@ -2090,37 +1893,37 @@
         <v>23</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="I15" s="8"/>
       <c r="J15" s="8"/>
       <c r="K15" s="8"/>
       <c r="L15" s="8" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="M15" s="8" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="N15" s="8" t="s">
-        <v>167</v>
+        <v>154</v>
       </c>
       <c r="O15" s="10" t="s">
         <v>29</v>
       </c>
       <c r="P15" s="11" t="s">
-        <v>32</v>
+        <v>159</v>
       </c>
       <c r="S15" s="10">
         <v>0</v>
@@ -2140,37 +1943,37 @@
         <v>23</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="H16" s="8" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="I16" s="8"/>
       <c r="J16" s="8"/>
       <c r="K16" s="8"/>
       <c r="L16" s="8" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="M16" s="8" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="N16" s="8" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="O16" s="10" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="P16" s="11" t="s">
-        <v>33</v>
+        <v>160</v>
       </c>
       <c r="S16" s="10">
         <v>0</v>
@@ -2190,37 +1993,37 @@
         <v>23</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="H17" s="8" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="I17" s="8"/>
       <c r="J17" s="8"/>
       <c r="K17" s="8"/>
       <c r="L17" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="M17" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="M17" s="8" t="s">
+      <c r="N17" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="N17" s="8" t="s">
-        <v>68</v>
-      </c>
       <c r="O17" s="10" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="P17" s="11" t="s">
-        <v>34</v>
+        <v>161</v>
       </c>
       <c r="S17" s="10">
         <v>0</v>
@@ -2240,37 +2043,37 @@
         <v>23</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="H18" s="8" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="I18" s="8"/>
       <c r="J18" s="8"/>
       <c r="K18" s="8"/>
       <c r="L18" s="8" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="M18" s="8" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="N18" s="8" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="O18" s="10" t="s">
         <v>30</v>
       </c>
       <c r="P18" s="11" t="s">
-        <v>34</v>
+        <v>161</v>
       </c>
       <c r="S18" s="10">
         <v>0</v>
@@ -2290,37 +2093,37 @@
         <v>23</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="H19" s="8" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="I19" s="8"/>
       <c r="J19" s="8"/>
       <c r="K19" s="8"/>
       <c r="L19" s="8" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="M19" s="8" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="N19" s="8" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="O19" s="10" t="s">
         <v>31</v>
       </c>
       <c r="P19" s="11" t="s">
-        <v>143</v>
+        <v>161</v>
       </c>
       <c r="S19" s="10">
         <v>0</v>
@@ -2334,43 +2137,43 @@
         <v>19</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C20" s="15" t="s">
         <v>23</v>
       </c>
       <c r="D20" s="16" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="E20" s="15" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="F20" s="15" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="G20" s="15"/>
       <c r="H20" s="15"/>
       <c r="I20" s="15"/>
       <c r="J20" s="15" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="K20" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="L20" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="M20" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="N20" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="L20" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="M20" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="N20" s="15" t="s">
-        <v>53</v>
-      </c>
       <c r="O20" s="17" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="P20" s="26" t="s">
-        <v>133</v>
+        <v>162</v>
       </c>
       <c r="Q20" s="17"/>
       <c r="R20" s="17"/>
@@ -2386,43 +2189,43 @@
         <v>20</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C21" s="15" t="s">
         <v>23</v>
       </c>
       <c r="D21" s="16" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E21" s="15" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="F21" s="15" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="G21" s="15"/>
       <c r="H21" s="15"/>
       <c r="I21" s="15"/>
       <c r="J21" s="15" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="K21" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="L21" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="M21" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="N21" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="L21" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="M21" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="N21" s="15" t="s">
-        <v>53</v>
-      </c>
       <c r="O21" s="17" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="P21" s="18" t="s">
-        <v>135</v>
+        <v>163</v>
       </c>
       <c r="Q21" s="17"/>
       <c r="R21" s="17"/>
@@ -2438,43 +2241,43 @@
         <v>21</v>
       </c>
       <c r="B22" s="15" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C22" s="15" t="s">
         <v>23</v>
       </c>
       <c r="D22" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="E22" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="E22" s="15" t="s">
-        <v>108</v>
-      </c>
       <c r="F22" s="15" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="G22" s="15"/>
       <c r="H22" s="15"/>
       <c r="I22" s="15"/>
       <c r="J22" s="15" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="K22" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="L22" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="M22" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="N22" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="L22" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="M22" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="N22" s="15" t="s">
-        <v>53</v>
-      </c>
       <c r="O22" s="17" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="P22" s="18" t="s">
-        <v>137</v>
+        <v>164</v>
       </c>
       <c r="Q22" s="17"/>
       <c r="R22" s="17"/>
@@ -2490,43 +2293,43 @@
         <v>22</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C23" s="15" t="s">
         <v>23</v>
       </c>
       <c r="D23" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="E23" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="F23" s="15" t="s">
         <v>106</v>
-      </c>
-      <c r="E23" s="15" t="s">
-        <v>108</v>
-      </c>
-      <c r="F23" s="15" t="s">
-        <v>109</v>
       </c>
       <c r="G23" s="15"/>
       <c r="H23" s="15"/>
       <c r="I23" s="15"/>
       <c r="J23" s="15" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="K23" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="L23" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="M23" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="N23" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="L23" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="M23" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="N23" s="15" t="s">
-        <v>53</v>
-      </c>
       <c r="O23" s="17" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="P23" s="18" t="s">
-        <v>137</v>
+        <v>164</v>
       </c>
       <c r="Q23" s="17"/>
       <c r="R23" s="17"/>
@@ -2542,43 +2345,43 @@
         <v>23</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C24" s="15" t="s">
         <v>23</v>
       </c>
       <c r="D24" s="16" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E24" s="15" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="F24" s="15" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="G24" s="15"/>
       <c r="H24" s="15"/>
       <c r="I24" s="15"/>
       <c r="J24" s="15" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="K24" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="L24" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="M24" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="N24" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="L24" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="M24" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="N24" s="15" t="s">
-        <v>53</v>
-      </c>
       <c r="O24" s="17" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="P24" s="18" t="s">
-        <v>137</v>
+        <v>164</v>
       </c>
       <c r="Q24" s="17"/>
       <c r="R24" s="17"/>
@@ -2600,41 +2403,41 @@
         <v>23</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="G25" s="8" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="H25" s="8"/>
       <c r="I25" s="8">
         <v>1</v>
       </c>
       <c r="J25" s="12" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="K25" s="12" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="L25" s="12" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="M25" s="12" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="N25" s="8" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="O25" s="10" t="s">
         <v>29</v>
       </c>
       <c r="P25" s="11" t="s">
-        <v>32</v>
+        <v>159</v>
       </c>
       <c r="S25" s="10">
         <v>0</v>
@@ -2654,41 +2457,41 @@
         <v>23</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="G26" s="8" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="H26" s="8"/>
       <c r="I26" s="8">
         <v>1</v>
       </c>
       <c r="J26" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="K26" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="L26" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="M26" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="K26" s="12" t="s">
+      <c r="N26" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="L26" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="M26" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="N26" s="8" t="s">
-        <v>53</v>
-      </c>
       <c r="O26" s="10" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="P26" s="11" t="s">
-        <v>33</v>
+        <v>160</v>
       </c>
       <c r="S26" s="10">
         <v>0</v>
@@ -2708,41 +2511,41 @@
         <v>23</v>
       </c>
       <c r="D27" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="E27" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="E27" s="8" t="s">
-        <v>88</v>
-      </c>
       <c r="F27" s="8" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="G27" s="8" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="H27" s="8"/>
       <c r="I27" s="8">
         <v>1</v>
       </c>
       <c r="J27" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="K27" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="L27" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="M27" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="K27" s="12" t="s">
+      <c r="N27" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="L27" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="M27" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="N27" s="8" t="s">
-        <v>53</v>
-      </c>
       <c r="O27" s="10" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="P27" s="11" t="s">
-        <v>34</v>
+        <v>161</v>
       </c>
       <c r="S27" s="10">
         <v>0</v>
@@ -2762,41 +2565,41 @@
         <v>23</v>
       </c>
       <c r="D28" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="F28" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="E28" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="F28" s="8" t="s">
-        <v>89</v>
-      </c>
       <c r="G28" s="8" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="H28" s="8"/>
       <c r="I28" s="8">
         <v>1</v>
       </c>
       <c r="J28" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="K28" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="L28" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="M28" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="K28" s="12" t="s">
+      <c r="N28" s="8" t="s">
         <v>50</v>
-      </c>
-      <c r="L28" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="M28" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="N28" s="8" t="s">
-        <v>53</v>
       </c>
       <c r="O28" s="10" t="s">
         <v>30</v>
       </c>
       <c r="P28" s="11" t="s">
-        <v>34</v>
+        <v>161</v>
       </c>
       <c r="S28" s="10">
         <v>0</v>
@@ -2816,41 +2619,41 @@
         <v>23</v>
       </c>
       <c r="D29" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="F29" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="G29" s="8" t="s">
         <v>87</v>
-      </c>
-      <c r="E29" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="F29" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="G29" s="8" t="s">
-        <v>90</v>
       </c>
       <c r="H29" s="8"/>
       <c r="I29" s="8">
         <v>1</v>
       </c>
       <c r="J29" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="K29" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="L29" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="M29" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="K29" s="12" t="s">
+      <c r="N29" s="8" t="s">
         <v>50</v>
-      </c>
-      <c r="L29" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="M29" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="N29" s="8" t="s">
-        <v>53</v>
       </c>
       <c r="O29" s="10" t="s">
         <v>31</v>
       </c>
       <c r="P29" s="11" t="s">
-        <v>34</v>
+        <v>161</v>
       </c>
       <c r="S29" s="10">
         <v>0</v>
@@ -2888,14 +2691,14 @@
         <v>10103</v>
       </c>
       <c r="G5" s="14" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="H5" t="str">
         <f>CONCATENATE(F5,$G$5,F6,$G$5,F7,$G$5,)</f>
         <v>10103,10104,10105,</v>
       </c>
       <c r="K5" s="25" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="L5" s="14"/>
       <c r="M5" t="str">
@@ -2911,7 +2714,7 @@
         <v>10104</v>
       </c>
       <c r="K6" s="25" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="7" spans="5:13">
@@ -2922,7 +2725,7 @@
         <v>10105</v>
       </c>
       <c r="K7" s="25" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="8" spans="5:13">
@@ -2937,7 +2740,7 @@
         <v>10106,10107,10108,</v>
       </c>
       <c r="K8" s="25" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="M8" t="str">
         <f>CONCATENATE(K8,K9,K10,)</f>
@@ -2952,7 +2755,7 @@
         <v>10107</v>
       </c>
       <c r="K9" s="25" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="10" spans="5:13">
@@ -2963,7 +2766,7 @@
         <v>10108</v>
       </c>
       <c r="K10" s="25" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="11" spans="5:13">
@@ -2978,7 +2781,7 @@
         <v>10109,10110,10111,</v>
       </c>
       <c r="K11" s="25" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="M11" t="str">
         <f>CONCATENATE(K11,K12,K13,)</f>
@@ -2993,7 +2796,7 @@
         <v>10110</v>
       </c>
       <c r="K12" s="25" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="13" spans="5:13">
@@ -3004,7 +2807,7 @@
         <v>10111</v>
       </c>
       <c r="K13" s="25" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="14" spans="5:13">
@@ -3019,7 +2822,7 @@
         <v>10112,10113,10114,</v>
       </c>
       <c r="K14" s="25" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="M14" t="str">
         <f>CONCATENATE(K14,K15,K16,)</f>
@@ -3034,7 +2837,7 @@
         <v>10113</v>
       </c>
       <c r="K15" s="25" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="16" spans="5:13">
@@ -3045,7 +2848,7 @@
         <v>10114</v>
       </c>
       <c r="K16" s="25" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="17" spans="5:13">
@@ -3060,7 +2863,7 @@
         <v>10115,10116,10117,</v>
       </c>
       <c r="K17" s="25" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="M17" t="str">
         <f>CONCATENATE(K17,K18,K19,)</f>
@@ -3075,7 +2878,7 @@
         <v>10116</v>
       </c>
       <c r="K18" s="25" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="19" spans="5:13">
@@ -3086,7 +2889,7 @@
         <v>10117</v>
       </c>
       <c r="K19" s="25" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="20" spans="5:13">
@@ -3129,7 +2932,7 @@
         <v>10121,10122,10123,</v>
       </c>
       <c r="M23" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="24" spans="5:13">
@@ -3140,7 +2943,7 @@
         <v>10122</v>
       </c>
       <c r="M24" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="25" spans="5:13">
@@ -3151,7 +2954,7 @@
         <v>10123</v>
       </c>
       <c r="M25" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="26" spans="5:13">
@@ -3166,7 +2969,7 @@
         <v>10124,10125,10126,</v>
       </c>
       <c r="M26" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="27" spans="5:13">
@@ -3177,7 +2980,7 @@
         <v>10125</v>
       </c>
       <c r="M27" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="28" spans="5:13">
@@ -3545,52 +3348,52 @@
   <sheetData>
     <row r="4" spans="3:3" ht="49.5" customHeight="1">
       <c r="C4" s="26" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="5" spans="3:3" ht="49.5" customHeight="1">
       <c r="C5" s="26" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
     </row>
     <row r="6" spans="3:3" ht="49.5" customHeight="1">
       <c r="C6" s="18" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
     </row>
     <row r="7" spans="3:3" ht="49.5" customHeight="1">
       <c r="C7" s="18" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
     </row>
     <row r="8" spans="3:3" ht="49.5" customHeight="1">
       <c r="C8" s="18" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
     </row>
     <row r="12" spans="3:3">
       <c r="C12" s="26" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="13" spans="3:3">
       <c r="C13" s="18" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="14" spans="3:3">
       <c r="C14" s="18" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="15" spans="3:3">
       <c r="C15" s="18" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="16" spans="3:3">
       <c r="C16" s="18" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>

--- a/config_debug/game_gift_style_config.xlsx
+++ b/config_debug/game_gift_style_config.xlsx
@@ -564,30 +564,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>"60万金币","10万金币","5万小游戏币","480万金币","20万金币","10万小游戏币","980万金币","30万金币","20万小游戏币",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"10万金币","10万金币","锁定*1","30万金币","20万金币","锁定*2","60万金币","30万金币","锁定*3",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"60万金币","20万金币","锁定*3","100万金币","20万金币","10万小游戏币","180万金币","20万金币","20万小游戏币",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"180万金币","10万金币","10万小游戏币","480万金币","20万金币","10万小游戏币","980万金币","30万金币","20万小游戏币",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"480万金币","20万金币","10万小游戏币","980万金币","30万金币","20万小游戏币","1980万金币","80万金币","30万小游戏币",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"980万金币","30万金币","20万小游戏币","1980万金币","80万金币","30万小游戏币","4980万金币","150万金币","50万小游戏币",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>FFEABFFF</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -620,6 +596,26 @@
   </si>
   <si>
     <t>"pay_icon_gold7","com_icon_yb","com_award_icon_chanz1","pay_icon_gold8","com_award_icon_yb1","com_award_icon_chanz2","pay_icon_gold10","com_award_icon_yb2","com_award_icon_chanz3",</t>
+  </si>
+  <si>
+    <t>"60万","10万","5万","480万","20万","10万","980万","30万","20万",</t>
+  </si>
+  <si>
+    <t>"180万","10万","10万","480万","20万","10万","980万","30万","20万",</t>
+  </si>
+  <si>
+    <t>"480万","20万","10万","980万","30万","20万","1980万","80万","30万",</t>
+  </si>
+  <si>
+    <t>"980万","30万","20万","1980万","80万","30万","4980万","150万","50万",</t>
+  </si>
+  <si>
+    <t>"60万","20万","3","100万","20万","10万","180万","20万","20万",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"10万","10万","1","30万","20万","2","60万","30万","3",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1095,10 +1091,10 @@
   <dimension ref="A1:T29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="O2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="O7" sqref="O7"/>
+      <selection pane="bottomRight" activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1305,13 +1301,13 @@
         <v>49</v>
       </c>
       <c r="N4" s="29" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="O4" s="30" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="P4" s="32" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="Q4" s="30"/>
       <c r="R4" s="30"/>
@@ -1364,10 +1360,10 @@
         <v>65</v>
       </c>
       <c r="O5" s="30" t="s">
-        <v>149</v>
+        <v>164</v>
       </c>
       <c r="P5" s="32" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="Q5" s="30"/>
       <c r="R5" s="30"/>
@@ -1420,10 +1416,10 @@
         <v>65</v>
       </c>
       <c r="O6" s="30" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="P6" s="32" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="Q6" s="30"/>
       <c r="R6" s="30"/>
@@ -1476,10 +1472,10 @@
         <v>65</v>
       </c>
       <c r="O7" s="30" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="P7" s="32" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="Q7" s="30"/>
       <c r="R7" s="30"/>
@@ -1532,10 +1528,10 @@
         <v>65</v>
       </c>
       <c r="O8" s="30" t="s">
+        <v>161</v>
+      </c>
+      <c r="P8" s="32" t="s">
         <v>152</v>
-      </c>
-      <c r="P8" s="32" t="s">
-        <v>158</v>
       </c>
       <c r="Q8" s="30"/>
       <c r="R8" s="30"/>
@@ -1588,10 +1584,10 @@
         <v>65</v>
       </c>
       <c r="O9" s="30" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="P9" s="32" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="Q9" s="30"/>
       <c r="R9" s="30"/>
@@ -1647,7 +1643,7 @@
         <v>29</v>
       </c>
       <c r="P10" s="23" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="Q10" s="22"/>
       <c r="R10" s="22"/>
@@ -1703,7 +1699,7 @@
         <v>93</v>
       </c>
       <c r="P11" s="23" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="Q11" s="22"/>
       <c r="R11" s="22"/>
@@ -1759,7 +1755,7 @@
         <v>94</v>
       </c>
       <c r="P12" s="23" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="Q12" s="22"/>
       <c r="R12" s="22"/>
@@ -1815,7 +1811,7 @@
         <v>30</v>
       </c>
       <c r="P13" s="23" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="Q13" s="22"/>
       <c r="R13" s="22"/>
@@ -1871,7 +1867,7 @@
         <v>31</v>
       </c>
       <c r="P14" s="23" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="Q14" s="22"/>
       <c r="R14" s="22"/>
@@ -1917,13 +1913,13 @@
         <v>60</v>
       </c>
       <c r="N15" s="8" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="O15" s="10" t="s">
         <v>29</v>
       </c>
       <c r="P15" s="11" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="S15" s="10">
         <v>0</v>
@@ -1973,7 +1969,7 @@
         <v>93</v>
       </c>
       <c r="P16" s="11" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="S16" s="10">
         <v>0</v>
@@ -2023,7 +2019,7 @@
         <v>94</v>
       </c>
       <c r="P17" s="11" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="S17" s="10">
         <v>0</v>
@@ -2073,7 +2069,7 @@
         <v>30</v>
       </c>
       <c r="P18" s="11" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="S18" s="10">
         <v>0</v>
@@ -2123,7 +2119,7 @@
         <v>31</v>
       </c>
       <c r="P19" s="11" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="S19" s="10">
         <v>0</v>
@@ -2173,7 +2169,7 @@
         <v>121</v>
       </c>
       <c r="P20" s="26" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="Q20" s="17"/>
       <c r="R20" s="17"/>
@@ -2225,7 +2221,7 @@
         <v>122</v>
       </c>
       <c r="P21" s="18" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="Q21" s="17"/>
       <c r="R21" s="17"/>
@@ -2277,7 +2273,7 @@
         <v>123</v>
       </c>
       <c r="P22" s="18" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="Q22" s="17"/>
       <c r="R22" s="17"/>
@@ -2329,7 +2325,7 @@
         <v>124</v>
       </c>
       <c r="P23" s="18" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="Q23" s="17"/>
       <c r="R23" s="17"/>
@@ -2381,7 +2377,7 @@
         <v>125</v>
       </c>
       <c r="P24" s="18" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="Q24" s="17"/>
       <c r="R24" s="17"/>
@@ -2437,7 +2433,7 @@
         <v>29</v>
       </c>
       <c r="P25" s="11" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="S25" s="10">
         <v>0</v>
@@ -2491,7 +2487,7 @@
         <v>93</v>
       </c>
       <c r="P26" s="11" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="S26" s="10">
         <v>0</v>
@@ -2545,7 +2541,7 @@
         <v>94</v>
       </c>
       <c r="P27" s="11" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="S27" s="10">
         <v>0</v>
@@ -2599,7 +2595,7 @@
         <v>30</v>
       </c>
       <c r="P28" s="11" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="S28" s="10">
         <v>0</v>
@@ -2653,7 +2649,7 @@
         <v>31</v>
       </c>
       <c r="P29" s="11" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="S29" s="10">
         <v>0</v>

--- a/config_debug/game_gift_style_config.xlsx
+++ b/config_debug/game_gift_style_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_Release\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_10.27\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -630,18 +630,18 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>10331,10332,10333,</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>10334,10091,10092,</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>"ty_icon_jb_498y","ty_icon_jb_30y","com_award_icon_cz1","ty_icon_jb_998y","ty_icon_jb_50y","com_award_icon_cz1","ty_icon_jb_2498y","ty_icon_jb_198y","com_award_icon_cz1",</t>
   </si>
   <si>
     <t>"ty_icon_jb_498y","ty_icon_jb_30y","com_award_icon_cz1","ty_icon_jb_998y","ty_icon_jb_50y","ty_icon_yxb_2","ty_icon_jb_2498y","ty_icon_jb_198y","ty_icon_yxb_4",</t>
+  </si>
+  <si>
+    <t>10346,10347,10348,</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>10349,10091,10092,</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1097,7 +1097,7 @@
       <pane xSplit="5" ySplit="1" topLeftCell="Q2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Q10" sqref="Q10"/>
+      <selection pane="bottomRight" activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1631,7 +1631,7 @@
         <v>166</v>
       </c>
       <c r="E10" s="17" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="F10" s="16" t="s">
         <v>98</v>
@@ -1665,7 +1665,7 @@
         <v>154</v>
       </c>
       <c r="Q10" s="21" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="R10" s="19"/>
       <c r="S10" s="19"/>
@@ -1690,7 +1690,7 @@
         <v>166</v>
       </c>
       <c r="E11" s="17" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="F11" s="16" t="s">
         <v>95</v>
@@ -1724,7 +1724,7 @@
         <v>153</v>
       </c>
       <c r="Q11" s="21" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="R11" s="19"/>
       <c r="S11" s="19"/>
